--- a/MuhammadQazi21906778.xlsx
+++ b/MuhammadQazi21906778.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ST235\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B19D65-F7C0-4DD7-8E7E-D58547E66006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745197CB-DC11-4B77-A24F-0D06CA8A0872}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C1C63C8-5E59-4B50-B46C-52DFC698979A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>Muhammad Qazi</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>Checking with wrong data type</t>
+  </si>
+  <si>
+    <t>Power of a number</t>
+  </si>
+  <si>
+    <t>Expected value is 64 and the result is also 64</t>
+  </si>
+  <si>
+    <t>Expected value is 0.287 and the result is also 0</t>
+  </si>
+  <si>
+    <t>Expected value is infinity and the result is also -90946846874</t>
   </si>
 </sst>
 </file>
@@ -710,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E23662E-D096-420C-AF50-1BEFC0A7C02B}">
-  <dimension ref="B3:E37"/>
+  <dimension ref="B3:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,6 +1094,95 @@
         <v>10</v>
       </c>
     </row>
+    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>2</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="10">
+        <v>3</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
+        <v>4</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="15">
+        <v>5</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
